--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="D35" s="9" t="n">
-        <v>1608.2</v>
+        <v>3030.119</v>
       </c>
       <c r="H35" s="41" t="n"/>
       <c r="I35" s="12" t="n"/>
@@ -1106,7 +1106,7 @@
         <v>1000</v>
       </c>
       <c r="D36" s="9" t="n">
-        <v>1608.2</v>
+        <v>3310</v>
       </c>
       <c r="H36" s="41" t="n"/>
       <c r="J36" s="11" t="n"/>
@@ -1127,7 +1127,7 @@
         <v>500</v>
       </c>
       <c r="D37" s="9" t="n">
-        <v>1700</v>
+        <v>3310</v>
       </c>
       <c r="H37" s="41" t="n"/>
       <c r="J37" s="11" t="n"/>
@@ -1148,7 +1148,7 @@
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>1608.2</v>
+        <v>3310</v>
       </c>
       <c r="H38" s="41" t="n"/>
       <c r="J38" s="11" t="n"/>
@@ -1169,7 +1169,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="33" t="n">
-        <v>4579.3</v>
+        <v>8628.17</v>
       </c>
       <c r="H39" s="41" t="n"/>
       <c r="I39" s="12" t="n"/>
@@ -1224,7 +1224,7 @@
         <v>1000</v>
       </c>
       <c r="D42" s="9" t="n">
-        <v>1733.93</v>
+        <v>3267.016</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="22">
@@ -1242,7 +1242,7 @@
         <v>1000</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>1733.93</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="22">
@@ -1260,7 +1260,7 @@
         <v>500</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>1733.93</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" s="22" thickBot="1">
@@ -1278,7 +1278,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>1733.93</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" s="22" thickBot="1">
@@ -1296,7 +1296,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="13" t="n">
-        <v>5121.6</v>
+        <v>9649.955</v>
       </c>
     </row>
     <row r="50">
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>

--- a/server/LISTAS/ma/TARUGOS.xlsx
+++ b/server/LISTAS/ma/TARUGOS.xlsx
@@ -948,7 +948,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="H1" s="19" t="n"/>
     </row>
@@ -1084,7 +1084,7 @@
         <v>1000</v>
       </c>
       <c r="D35" s="9" t="n">
-        <v>1608.2</v>
+        <v>3666.444</v>
       </c>
       <c r="H35" s="41" t="n"/>
       <c r="I35" s="12" t="n"/>
@@ -1106,7 +1106,7 @@
         <v>1000</v>
       </c>
       <c r="D36" s="9" t="n">
-        <v>1608.2</v>
+        <v>4110</v>
       </c>
       <c r="H36" s="41" t="n"/>
       <c r="J36" s="11" t="n"/>
@@ -1127,7 +1127,7 @@
         <v>500</v>
       </c>
       <c r="D37" s="9" t="n">
-        <v>1700</v>
+        <v>4110</v>
       </c>
       <c r="H37" s="41" t="n"/>
       <c r="J37" s="11" t="n"/>
@@ -1148,7 +1148,7 @@
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
-        <v>1608.2</v>
+        <v>4110</v>
       </c>
       <c r="H38" s="41" t="n"/>
       <c r="J38" s="11" t="n"/>
@@ -1169,7 +1169,7 @@
         <v>250</v>
       </c>
       <c r="D39" s="33" t="n">
-        <v>4579.3</v>
+        <v>10440.086</v>
       </c>
       <c r="H39" s="41" t="n"/>
       <c r="I39" s="12" t="n"/>
@@ -1224,7 +1224,7 @@
         <v>1000</v>
       </c>
       <c r="D42" s="9" t="n">
-        <v>1733.93</v>
+        <v>3953.09</v>
       </c>
     </row>
     <row r="43" ht="18" customHeight="1" s="22">
@@ -1242,7 +1242,7 @@
         <v>1000</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>1733.93</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="22">
@@ -1260,7 +1260,7 @@
         <v>500</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>1733.93</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="45" ht="18.75" customHeight="1" s="22" thickBot="1">
@@ -1278,7 +1278,7 @@
         <v>250</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>1733.93</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="46" ht="18.75" customHeight="1" s="22" thickBot="1">
@@ -1296,7 +1296,7 @@
         <v>250</v>
       </c>
       <c r="D46" s="13" t="n">
-        <v>5121.6</v>
+        <v>11676.446</v>
       </c>
     </row>
     <row r="50">
@@ -1315,10 +1315,10 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="B40:D40"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:G10"/>
   </mergeCells>
   <pageMargins left="0.7874015748031497" right="0.7874015748031497" top="0.984251968503937" bottom="0.984251968503937" header="0" footer="0"/>
